--- a/Requirements/SIQ - CRS/SIQ-CRS.xlsx
+++ b/Requirements/SIQ - CRS/SIQ-CRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Requirements\SIQ - CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23256041-8750-4E62-A172-CDEC25572FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53A4517-5C2D-4DEA-B5C8-BE1D7D436738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t xml:space="preserve"> Features </t>
   </si>
@@ -67,10 +67,6 @@
     <t>3.Navigate</t>
   </si>
   <si>
-    <t>3.2-home page include categories that user follow 
-3.3-home page include drop down list contains: notification, profile</t>
-  </si>
-  <si>
     <t>3.Constraints</t>
   </si>
   <si>
@@ -85,56 +81,10 @@
     <t>4.1-User and Admin can add articles, videos ,recordings.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-4.2-articles length should be with maxium 500 character.
-4.3-videos and recordings should not exceed 3 minutes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.Edit   </t>
-  </si>
-  <si>
-    <t>5.1-User can edit his own articles including videos and recordings
-5.2-Admin can edit all articles including videos and recordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.Delete   </t>
-  </si>
-  <si>
-    <t>6.1-User can delete his own articles including videos and recordings
-6.2-Admin can delete all articles including videos and recordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.Notification </t>
-  </si>
-  <si>
-    <t>8.add user</t>
-  </si>
-  <si>
-    <t>8.1- admin can add user 
-8.2-admin can choose if user is admin or normal user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.delete user </t>
-  </si>
-  <si>
-    <t>10.view profile</t>
-  </si>
-  <si>
-    <t>11.LOGOUT</t>
-  </si>
-  <si>
     <t>Approved by:</t>
   </si>
   <si>
     <t>Omar</t>
-  </si>
-  <si>
-    <t>7.1-notification will appear  with author, date, post type, cateogry when a new article/video / record  is added in the 
-followed category only</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.1-user can see his personal info (username- email-picture)
-10.2-admin can see his personal info (username- email-picture-role-add&amp; delete user button)</t>
   </si>
   <si>
     <t>SIQ - Revision History</t>
@@ -198,7 +148,44 @@
 </t>
   </si>
   <si>
-    <t>11.1 user and admin can logout from the system</t>
+    <r>
+      <t>2.1-User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can login with unique username and the strong password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2-Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can login using unique admin username and password</t>
+    </r>
+  </si>
+  <si>
+    <t>request of approval</t>
   </si>
   <si>
     <r>
@@ -214,7 +201,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> email</t>
+      <t xml:space="preserve"> email must be in email form.</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>unique user name</t>
+      <t>unique user name and must not contain numbers or special characters.</t>
     </r>
     <r>
       <rPr>
@@ -268,46 +255,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : more than 8 characters and contain special characters
+      <t xml:space="preserve"> : more than 5 characters and contain special character and a numiric value.
 </t>
     </r>
   </si>
   <si>
     <r>
-      <t>2.1-User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> can login with unique username and the strong password
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navigate from Home page to Categories pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.1-which are 3 categories(Language -technology-mathematics) and no one can add or delete cateogry </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navigate from Home page to ptofile page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.2-profile page show username, role, email. followed categories, add user-del user buttons(incase of admin).
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.2-Admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> can login using unique admin username and password</t>
-    </r>
   </si>
   <si>
     <r>
@@ -319,7 +318,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Navigate from Home page to Categories page</t>
+      <t xml:space="preserve">Navigate from Home page to Notification page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-3 notification page show notifications about the content added in the user followed categories.</t>
     </r>
     <r>
       <rPr>
@@ -330,13 +340,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3.1-categories page include 3 categories(Language -technology-mathematics) and no one can add or delete cateogry </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-3.4- user can click on back to navigate to home page.
+3.4- user can click on learning hub icon to navigate to home page.
 </t>
     </r>
     <r>
@@ -364,8 +368,43 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">9.1-admin </t>
+    <t xml:space="preserve">
+4.2-articles length should be with maxium 1000 character.
+4.3-videos and recordings should not exceed 35Mb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Delete   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.Notification </t>
+  </si>
+  <si>
+    <t>7.add user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.delete user </t>
+  </si>
+  <si>
+    <t>10.LOGOUT</t>
+  </si>
+  <si>
+    <t>9.Follow</t>
+  </si>
+  <si>
+    <t>5.1-User can delete his own articles, videos and recordings
+5.2-Admin can delete all articles, videos and recordings</t>
+  </si>
+  <si>
+    <t>6.1-notification will appear  with author name, type, cateogry,
+content name when a new article/video / record  is added in the followed categories only.</t>
+  </si>
+  <si>
+    <t>7.1- admin can add user 
+7.2-admin can choose if user is admin or normal user.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.1-admin </t>
     </r>
     <r>
       <rPr>
@@ -377,24 +416,37 @@
       </rPr>
       <t xml:space="preserve">can delete user 
 if user is deleted ,his contents willnot be deleted 
-,but will be assigned to default user
-9.2-admin can delete another admin </t>
-    </r>
-  </si>
-  <si>
-    <t>request of approval</t>
+8.2-admin can delete another admin </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.1-user/admin can follow up to 3 categoreis.
+9.2-user/adimn will get notification if any content added into
+his followed categories.
+9.3- notifications of unfollowed categories and deleted content will be deleted.
+</t>
+  </si>
+  <si>
+    <t>10.1 user and admin can logout from the system to the login page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,119 +690,122 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,272 +1083,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="69.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="69.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="90">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="100.8">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="19"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="60">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" ht="57.6">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="19"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="60">
+    <row r="4" spans="1:7" ht="71.400000000000006" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="B4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="78" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="19"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="84.6" customHeight="1">
       <c r="A6" s="30"/>
-      <c r="B6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="27"/>
+      <c r="B6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="84.6" customHeight="1">
       <c r="A7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="19"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="84.6" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="66" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="87" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="65.099999999999994" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="86.1" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="99" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="51" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="47.1" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="58.9" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="66" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="87" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" ht="65.099999999999994" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" ht="86.1" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" ht="60">
-      <c r="A14" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="51" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" ht="47.1" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:1">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:1">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:1">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:1">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:1">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:1">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:1">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:1">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:1">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:1">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:1">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:1">
       <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1313,44 +1356,44 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" ht="21.6" thickBot="1">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="90.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" ht="87" thickBot="1">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="135.75" thickBot="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" ht="101.4" thickBot="1">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:3" ht="43.8" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1375,95 +1418,95 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41" style="11" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="41" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.6" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="C4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="54" customHeight="1" thickBot="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="A3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="54" customHeight="1" thickBot="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/SIQ - CRS/SIQ-CRS.xlsx
+++ b/Requirements/SIQ - CRS/SIQ-CRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Requirements\SIQ - CRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Documents\GitHub\learning-hub\Requirements\SIQ - CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53A4517-5C2D-4DEA-B5C8-BE1D7D436738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C329DEC-4664-4850-9961-75223C207B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -293,31 +293,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Navigate from Home page to ptofile page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3.2-profile page show username, role, email. followed categories, add user-del user buttons(incase of admin).
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Navigate from Home page to Notification page
 </t>
     </r>
@@ -368,11 +343,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-4.2-articles length should be with maxium 1000 character.
-4.3-videos and recordings should not exceed 35Mb.</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.Delete   </t>
   </si>
   <si>
@@ -389,10 +359,6 @@
   </si>
   <si>
     <t>9.Follow</t>
-  </si>
-  <si>
-    <t>5.1-User can delete his own articles, videos and recordings
-5.2-Admin can delete all articles, videos and recordings</t>
   </si>
   <si>
     <t>6.1-notification will appear  with author name, type, cateogry,
@@ -429,17 +395,61 @@
   <si>
     <t>10.1 user and admin can logout from the system to the login page.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navigate from Home page to profile page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.2-profile page show username, role, email. followed categories, add user-del user buttons(incase of admin).
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.2-articles length should be with maxium 1000 character.
+4.3-videos and recordings should not exceed 35Mb.
+4.4- videos should be mp4 exetention
+4.5- records should be mp3 exetention</t>
+  </si>
+  <si>
+    <t>5.1-User can delete his own articles, videos and recordings
+5.2-Admin can delete all articles, videos and recordings
+5.3- Deleted document must be removed from the website for all users and admins.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,107 +700,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,14 +818,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1122,7 +1135,7 @@
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -1131,7 +1144,7 @@
       <c r="D2" s="19"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
@@ -1145,10 +1158,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="71.400000000000006" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -1158,9 +1171,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="78" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="37" t="s">
-        <v>42</v>
+      <c r="A5" s="32"/>
+      <c r="B5" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>6</v>
@@ -1169,9 +1182,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="84.6" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="37" t="s">
-        <v>43</v>
+      <c r="A6" s="33"/>
+      <c r="B6" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>39</v>
@@ -1180,7 +1193,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="84.6" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1193,9 +1206,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="84.6" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="37" t="s">
-        <v>44</v>
+      <c r="A8" s="33"/>
+      <c r="B8" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>39</v>
@@ -1205,10 +1218,10 @@
     </row>
     <row r="9" spans="1:7" ht="66" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>6</v>
@@ -1217,10 +1230,10 @@
     </row>
     <row r="10" spans="1:7" ht="87" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>39</v>
@@ -1229,10 +1242,10 @@
     </row>
     <row r="11" spans="1:7" ht="65.099999999999994" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>39</v>
@@ -1241,10 +1254,10 @@
     </row>
     <row r="12" spans="1:7" ht="86.1" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>39</v>
@@ -1253,10 +1266,10 @@
     </row>
     <row r="13" spans="1:7" ht="99" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>39</v>
@@ -1267,10 +1280,10 @@
     </row>
     <row r="14" spans="1:7" ht="51" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>39</v>
@@ -1364,10 +1377,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.6" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="87" thickBot="1">
@@ -1430,14 +1443,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -1480,19 +1493,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="38" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -1500,11 +1513,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" customHeight="1" thickBot="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
